--- a/1_semester/Moduls/ПУ/Модуль 1/import/Role.xlsx
+++ b/1_semester/Moduls/ПУ/Модуль 1/import/Role.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\ПУ\Модуль 1\import\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EFE9CB-747C-42D4-B5E6-E0CEA3F8E9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Role" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -48,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -184,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -361,26 +355,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -396,7 +391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -404,16 +399,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
